--- a/Data/References.xlsx
+++ b/Data/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7717590-1B17-42F4-9435-5292FBF1F40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B6CB9-17ED-4BFC-9BE7-99B041FB125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{69F8C7A1-31FB-4D30-85DB-7B7CF0C08556}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Total_Number_of_References</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Number_of_Animal_References</t>
+  </si>
+  <si>
+    <t>Success_Pharmacology</t>
+  </si>
+  <si>
+    <t>Succes_Neuro</t>
+  </si>
+  <si>
+    <t>Success_Cancer</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC84739-7E5C-48DD-83AD-339DB076C522}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,10 +435,13 @@
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,8 +454,17 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -457,8 +478,17 @@
       <c r="D2" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>27</v>
       </c>
@@ -472,8 +502,17 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>29</v>
       </c>
@@ -487,8 +526,17 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
@@ -502,8 +550,17 @@
       <c r="D5" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -517,8 +574,17 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -532,8 +598,17 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -547,8 +622,17 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -562,8 +646,17 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -577,8 +670,17 @@
       <c r="D10" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -592,8 +694,17 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -607,8 +718,17 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -622,8 +742,17 @@
       <c r="D13" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -637,8 +766,17 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -652,8 +790,17 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
@@ -667,8 +814,17 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -682,8 +838,17 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>43</v>
       </c>
@@ -697,8 +862,17 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -712,8 +886,17 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>50</v>
       </c>
@@ -727,8 +910,17 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -742,8 +934,17 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -757,8 +958,17 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -772,8 +982,14 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -787,8 +1003,14 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -802,8 +1024,14 @@
       <c r="D25" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -817,8 +1045,14 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -832,8 +1066,14 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -847,8 +1087,14 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>33</v>
       </c>
@@ -862,8 +1108,14 @@
       <c r="D29" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
@@ -877,8 +1129,14 @@
       <c r="D30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -892,8 +1150,14 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45</v>
       </c>
@@ -907,8 +1171,14 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15</v>
       </c>
@@ -922,8 +1192,14 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -937,8 +1213,14 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -952,8 +1234,14 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -967,8 +1255,14 @@
       <c r="D36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -982,8 +1276,14 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13</v>
       </c>
@@ -997,8 +1297,14 @@
       <c r="D38" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1012,8 +1318,14 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>18</v>
       </c>
@@ -1027,8 +1339,14 @@
       <c r="D40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1042,8 +1360,14 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1057,8 +1381,14 @@
       <c r="D42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1072,8 +1402,14 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1087,8 +1423,14 @@
       <c r="D44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1102,8 +1444,11 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1117,8 +1462,11 @@
       <c r="D46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1132,8 +1480,11 @@
       <c r="D47" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1147,8 +1498,11 @@
       <c r="D48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -1162,8 +1516,11 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1177,8 +1534,11 @@
       <c r="D50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>23</v>
       </c>
@@ -1192,8 +1552,11 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1207,8 +1570,11 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>19</v>
       </c>
@@ -1222,8 +1588,11 @@
       <c r="D53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1237,8 +1606,11 @@
       <c r="D54" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1253,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1268,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>21</v>
       </c>
@@ -1283,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1298,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>15</v>
       </c>
@@ -1313,7 +1685,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1328,7 +1700,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>19</v>
       </c>
@@ -1343,7 +1715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1358,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1373,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10</v>
       </c>
